--- a/biology/Zoologie/Hemichromis/Hemichromis.xlsx
+++ b/biology/Zoologie/Hemichromis/Hemichromis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hemichromis regroupe plusieurs espèces de poissons de la famille des Cichlidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes ces espèces sont endémiques de l'Afrique.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (28 mai 2015)[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (28 mai 2015):
 Hemichromis angolensis Steindachner, 1865
 Hemichromis bimaculatus Gill, 1862
 Hemichromis cerasogaster (Boulenger, 1899)
@@ -557,9 +573,43 @@
 Hemichromis lifalili Loiselle, 1979
 Hemichromis stellifer Loiselle, 1979
 et notamment:
-Hemichromis saharae[2] anciennement confondu avec Hemichromis letourneuxi.
-Note
-Selon ITIS:
+Hemichromis saharae anciennement confondu avec Hemichromis letourneuxi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hemichromis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemichromis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS:
 Hemichromis angolensis - Steindachner, 1865
 Hemichromis bimaculatus - Gill, 1862 - Acara rouge ; Cichlidé-joyau
 Hemichromis cerasogaster - (Boulenger, 1899)
